--- a/data/trans_dic/IP1001-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP1001-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,31</t>
+          <t>0; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,25</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,24</t>
+          <t>0; 6,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,64</t>
+          <t>0,0; 18,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,81</t>
+          <t>0,0; 22,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,39</t>
+          <t>0,0; 26,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,61</t>
+          <t>0,0; 20,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,97</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,13</t>
+          <t>0,0; 8,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,48</t>
+          <t>0,0; 11,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,38</t>
+          <t>0,0; 11,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,68</t>
+          <t>0,0; 8,6</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,15</t>
+          <t>1,24; 5,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,93</t>
+          <t>1,42; 5,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,44</t>
+          <t>1,65; 5,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,55</t>
+          <t>2,72; 7,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,84</t>
+          <t>1,21; 4,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,38</t>
+          <t>0,59; 3,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,43</t>
+          <t>2,11; 6,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,14</t>
+          <t>1,0; 4,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,81</t>
+          <t>1,6; 4,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,56</t>
+          <t>1,23; 3,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,71</t>
+          <t>2,43; 5,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,8</t>
+          <t>2,28; 5,68</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>3,22%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0,75; 4,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,37; 3,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0,76; 4,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,64</t>
+          <t>1,55; 9,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,83</t>
+          <t>2,46; 7,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,36</t>
+          <t>0,28; 3,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,17</t>
+          <t>0,0; 2,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,97; 5,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,38</t>
+          <t>1,84; 5,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,99</t>
+          <t>0,58; 2,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,06</t>
+          <t>0,62; 2,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,6</t>
+          <t>1,74; 5,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,19%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,51</t>
+          <t>2,51; 7,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,37</t>
+          <t>2,36; 6,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,31</t>
+          <t>1,36; 5,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 9,61</t>
+          <t>0,96; 5,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,88</t>
+          <t>1,74; 5,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,13</t>
+          <t>0,43; 3,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,61</t>
+          <t>0,37; 3,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,01</t>
+          <t>0,44; 4,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,38</t>
+          <t>2,59; 5,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,76</t>
+          <t>1,6; 4,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,89</t>
+          <t>1,22; 3,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,84</t>
+          <t>1,11; 3,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1001-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP1001-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,83</t>
+          <t>0,0; 17,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,36</t>
+          <t>0,0; 23,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,17</t>
+          <t>0,0; 22,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,38</t>
+          <t>0,0; 9,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,99</t>
+          <t>0,0; 10,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,06</t>
+          <t>0,0; 10,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,45</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,86</t>
+          <t>0,53; 4,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,88</t>
+          <t>0,62; 5,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,03</t>
+          <t>0,0; 4,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,0</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,27</t>
+          <t>1,23; 7,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,26</t>
+          <t>0,53; 5,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,12</t>
+          <t>0,69; 5,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,86</t>
+          <t>0,29; 2,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,14</t>
+          <t>1,36; 5,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,29</t>
+          <t>0,94; 4,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,83</t>
+          <t>0,72; 3,87</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,31</t>
+          <t>1,29; 5,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,25</t>
+          <t>1,4; 5,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,24</t>
+          <t>1,71; 5,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,64</t>
+          <t>2,51; 7,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,81</t>
+          <t>1,2; 4,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,39</t>
+          <t>0,63; 3,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,61</t>
+          <t>2,19; 6,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,97</t>
+          <t>0,88; 5,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,13</t>
+          <t>1,63; 4,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,48</t>
+          <t>1,26; 3,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,38</t>
+          <t>2,37; 5,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,68</t>
+          <t>2,35; 5,47</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1144,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,51</t>
+          <t>0,65; 4,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,37</t>
+          <t>0,37; 3,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,31</t>
+          <t>0,74; 4,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 9,61</t>
+          <t>1,36; 8,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,88</t>
+          <t>2,32; 7,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,32 +1174,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,61</t>
+          <t>0,0; 2,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,01</t>
+          <t>0,97; 5,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,38</t>
+          <t>1,89; 5,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,76</t>
+          <t>0,56; 2,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,89</t>
+          <t>0,61; 2,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,84</t>
+          <t>1,71; 6,01</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,15</t>
+          <t>2,49; 7,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,93</t>
+          <t>2,08; 7,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,44</t>
+          <t>1,39; 5,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,55</t>
+          <t>0,93; 5,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,84</t>
+          <t>1,52; 6,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,38</t>
+          <t>0,36; 3,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,43</t>
+          <t>0,37; 3,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,14</t>
+          <t>0,41; 3,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,81</t>
+          <t>2,49; 5,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,56</t>
+          <t>1,67; 4,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,71</t>
+          <t>1,1; 3,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,8</t>
+          <t>1,06; 3,72</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,78</t>
+          <t>1,81; 3,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,86</t>
+          <t>1,81; 3,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,74</t>
+          <t>1,8; 3,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,88</t>
+          <t>2,31; 4,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,27</t>
+          <t>2,03; 4,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,88</t>
+          <t>1,21; 2,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,3</t>
+          <t>1,42; 3,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,52</t>
+          <t>1,31; 3,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,63</t>
+          <t>2,19; 3,61</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,09</t>
+          <t>1,72; 2,97</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,2</t>
+          <t>1,83; 3,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,72</t>
+          <t>2,15; 3,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1001-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP1001-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -739,22 +739,22 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,64</t>
+          <t>0,0; 18,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,8</t>
+          <t>0,0; 18,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,3</t>
+          <t>0,0; 24,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,81</t>
+          <t>0,0; 23,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,29 +764,29 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,34</t>
+          <t>0,0; 9,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,96</t>
+          <t>0,0; 11,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,88</t>
+          <t>0,0; 8,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,6</t>
+          <t>0,0; 8,09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,71</t>
+          <t>0,0; 3,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,67</t>
+          <t>0,51; 5,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,49</t>
+          <t>0,61; 6,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,07</t>
+          <t>0,45; 4,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,29</t>
+          <t>0,0; 3,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,38</t>
+          <t>1,2; 7,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,32</t>
+          <t>0,53; 5,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,97</t>
+          <t>0,68; 5,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,63</t>
+          <t>0,29; 2,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,09</t>
+          <t>1,19; 4,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,08</t>
+          <t>0,95; 4,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,87</t>
+          <t>0,64; 3,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,18</t>
+          <t>1,47; 5,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,2</t>
+          <t>1,47; 5,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,63</t>
+          <t>1,66; 5,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,5</t>
+          <t>2,67; 7,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,63</t>
+          <t>1,24; 4,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,61</t>
+          <t>0,59; 3,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,71</t>
+          <t>2,22; 6,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,1</t>
+          <t>0,99; 5,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,1</t>
+          <t>1,62; 4,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,72</t>
+          <t>1,34; 3,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,25</t>
+          <t>2,24; 5,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,47</t>
+          <t>2,21; 5,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,02</t>
+          <t>0,65; 4,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,4</t>
+          <t>0,37; 3,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,39</t>
+          <t>0,8; 4,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 8,8</t>
+          <t>1,27; 8,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 7,91</t>
+          <t>2,33; 7,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,13</t>
+          <t>0,29; 3,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,94</t>
+          <t>0,0; 2,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,38</t>
+          <t>1,12; 5,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,21</t>
+          <t>1,83; 4,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,55</t>
+          <t>0,54; 2,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,91</t>
+          <t>0,62; 2,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,01</t>
+          <t>1,64; 5,79</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 7,34</t>
+          <t>2,33; 7,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 7,27</t>
+          <t>2,1; 6,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,32</t>
+          <t>1,41; 5,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,58</t>
+          <t>0,94; 5,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,12</t>
+          <t>1,67; 6,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,41</t>
+          <t>0,36; 3,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,86</t>
+          <t>0,37; 3,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,93</t>
+          <t>0,45; 3,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,71</t>
+          <t>2,41; 5,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,31</t>
+          <t>1,54; 4,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,58</t>
+          <t>1,19; 3,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,72</t>
+          <t>1,06; 3,94</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,75</t>
+          <t>1,83; 3,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,79</t>
+          <t>1,84; 3,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,62</t>
+          <t>1,83; 3,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,96</t>
+          <t>2,29; 5,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,24</t>
+          <t>1,95; 4,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,95</t>
+          <t>1,19; 2,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,38</t>
+          <t>1,48; 3,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,39</t>
+          <t>1,24; 3,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,61</t>
+          <t>2,22; 3,59</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,97</t>
+          <t>1,7; 3,11</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,17</t>
+          <t>1,85; 3,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,81</t>
+          <t>2,1; 3,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1001-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP1001-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0,51; 4,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>1,72; 7,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0,63; 6,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,89</t>
+          <t>0,62; 5,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,34</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,2</t>
+          <t>0,45; 4,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,82</t>
+          <t>0,51; 4,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,38; 3,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,51</t>
+          <t>0,47; 2,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,76</t>
+          <t>1,58; 5,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,74</t>
+          <t>1,02; 4,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,09</t>
+          <t>0,77; 3,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,8</t>
+          <t>1,21; 4,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,15</t>
+          <t>0,59; 3,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,09</t>
+          <t>2,11; 6,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,08</t>
+          <t>0,97; 4,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,7</t>
+          <t>1,24; 5,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,68</t>
+          <t>1,42; 5,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,43</t>
+          <t>1,65; 5,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,35</t>
+          <t>2,77; 7,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,82</t>
+          <t>1,6; 4,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,73</t>
+          <t>1,23; 3,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,37</t>
+          <t>2,43; 5,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,92</t>
+          <t>2,3; 5,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,39%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,14</t>
+          <t>2,46; 7,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,28</t>
+          <t>0,28; 3,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,38</t>
+          <t>0,0; 2,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,35</t>
+          <t>0,77; 4,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,72</t>
+          <t>0,75; 4,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,44</t>
+          <t>0,37; 3,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,48</t>
+          <t>0,76; 4,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,41</t>
+          <t>1,69; 14,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,11</t>
+          <t>1,84; 5,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,6</t>
+          <t>0,58; 2,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,07</t>
+          <t>0,62; 2,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,34</t>
+          <t>1,74; 6,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,06</t>
+          <t>1,74; 5,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,42</t>
+          <t>0,43; 3,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,98</t>
+          <t>0,37; 3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 8,55</t>
+          <t>0,46; 4,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,81</t>
+          <t>2,51; 7,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,29</t>
+          <t>2,36; 6,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,92</t>
+          <t>1,36; 5,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,63</t>
+          <t>0,96; 5,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,98</t>
+          <t>2,59; 5,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,59</t>
+          <t>1,6; 4,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,84</t>
+          <t>1,22; 3,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,79</t>
+          <t>1,15; 3,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,19</t>
+          <t>2,1; 4,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,87</t>
+          <t>1,16; 2,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,43</t>
+          <t>1,42; 3,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,25</t>
+          <t>1,34; 3,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,12</t>
+          <t>1,86; 3,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,5</t>
+          <t>1,81; 3,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,85</t>
+          <t>1,75; 3,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,81</t>
+          <t>2,29; 5,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,65</t>
+          <t>2,2; 3,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,4</t>
+          <t>1,69; 3,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,51</t>
+          <t>1,82; 3,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,94</t>
+          <t>2,13; 3,91</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,67%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,67%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,58%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,4%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,18%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 3,93</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 3,8</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 3,74</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 5,05</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 4,15</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 2,93</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 3,28</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 3,23</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 3,59</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 3,11</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 3,23</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 3,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
